--- a/Calculate.xlsx
+++ b/Calculate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a063b81c7d42b926/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a063b81c7d42b926/Documents/ASR-Props/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{4AC29497-7BDA-F04A-BC42-EEECDED25249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51748F6F-8497-4D36-9AC5-3E1F733F305D}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="8_{4AC29497-7BDA-F04A-BC42-EEECDED25249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B95C6123-6D06-49CF-8CF0-34D8A6816628}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,31 +20,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>SQ Yards</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Width</t>
-  </si>
-  <si>
-    <t>Sq Yards</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t>Road Facing</t>
+  </si>
+  <si>
+    <t>Other Facing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>Dimensions Calculated</t>
+  </si>
+  <si>
+    <t>Final Price</t>
+  </si>
+  <si>
+    <t>Lumsum Price</t>
+  </si>
+  <si>
+    <t>Price Per Yard</t>
+  </si>
+  <si>
+    <t>Dimensions as per doc</t>
+  </si>
+  <si>
+    <t>Per Yard Price</t>
+  </si>
+  <si>
+    <t>Price Calculation</t>
+  </si>
+  <si>
+    <t>Dimension Calculation</t>
+  </si>
+  <si>
+    <t>Per Yard Calculation</t>
+  </si>
+  <si>
+    <t>Commision Calculation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$₹-4009]\ #,##0.00"/>
+  <numFmts count="4">
+    <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0;[Red]&quot;₹&quot;\ #,##0"/>
+    <numFmt numFmtId="167" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="168" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,14 +83,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -73,8 +110,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -83,109 +132,238 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF505050"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,92 +678,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E48988E-190A-4943-B5EF-BE0BFAF4429F}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8">
-        <f>B2*B3</f>
-        <v>1015000000</v>
-      </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="C2" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="C3" s="15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <f>(B6*B7)/9</f>
-        <v>1430.6666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="C4" s="16">
+        <f>(C2*C3)/9</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="17">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12">
+        <f>C6*C7</f>
+        <v>192000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <f>400000000</f>
+        <v>400000000</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <f>B5*B8</f>
-        <v>572266666.66666675</v>
-      </c>
-      <c r="C9">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C10">
-        <f>C9*B8</f>
-        <v>572000000</v>
+      <c r="C11" s="17">
+        <v>2400</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6">
+        <f>C10/C11</f>
+        <v>166666.66666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <f>400000000</f>
+        <v>400000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C15" s="22">
+        <f>B15*C14</f>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="C16" s="22">
+        <f>B16*C14</f>
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="20">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C17" s="12">
+        <f>B17*C14</f>
+        <v>3000000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Calculate.xlsx
+++ b/Calculate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a063b81c7d42b926/Documents/ASR-Props/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="226" documentId="8_{4AC29497-7BDA-F04A-BC42-EEECDED25249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B95C6123-6D06-49CF-8CF0-34D8A6816628}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="8_{4AC29497-7BDA-F04A-BC42-EEECDED25249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF427219-91BD-0C48-9CD6-39B0C0271A50}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,17 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -69,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
-    <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0;[Red]&quot;₹&quot;\ #,##0"/>
-    <numFmt numFmtId="167" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    <numFmt numFmtId="168" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0;[Red]&quot;₹&quot;\ #,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -312,18 +323,18 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -335,13 +346,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -352,7 +363,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -361,7 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -681,20 +692,20 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.71484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>11</v>
       </c>
@@ -705,7 +716,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
@@ -713,7 +724,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
@@ -722,11 +733,11 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>10</v>
       </c>
@@ -734,30 +745,30 @@
         <v>8</v>
       </c>
       <c r="C6" s="17">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="10">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="12">
         <f>C6*C7</f>
-        <v>192000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>405160000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>12</v>
       </c>
@@ -775,7 +786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
@@ -784,7 +795,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
@@ -793,8 +804,8 @@
         <v>166666.66666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
@@ -806,7 +817,7 @@
         <v>400000000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -815,7 +826,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="18">
         <v>0.01</v>
       </c>
@@ -824,7 +835,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="20">
         <v>7.4999999999999997E-3</v>
       </c>
